--- a/pidis/expdata/10032.xlsx
+++ b/pidis/expdata/10032.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4F85F-1BDF-C94C-A10D-31633791038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23480" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="17">
   <si>
     <t>Elab</t>
   </si>
@@ -73,12 +83,18 @@
   <si>
     <t>SLACE80E130</t>
   </si>
+  <si>
+    <t>norm_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -91,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,16 +135,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,19 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,16 +469,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>6.47</v>
       </c>
@@ -478,17 +512,25 @@
       <c r="I2" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>H2*0.083</f>
+        <v>-2.49E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f>MAX(J2^2-K2^2,0)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>6.47</v>
       </c>
@@ -516,17 +558,25 @@
       <c r="I3" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K36" si="0">H3*0.083</f>
+        <v>-3.735E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L36" si="1">MAX(J3^2-K3^2,0)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>6.47</v>
       </c>
@@ -554,17 +604,25 @@
       <c r="I4" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5610000000000008E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>6.47</v>
       </c>
@@ -592,17 +650,25 @@
       <c r="I5" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8060000000000004E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>6.47</v>
       </c>
@@ -630,17 +696,25 @@
       <c r="I6" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4860000000000004E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6.47</v>
       </c>
@@ -668,17 +742,25 @@
       <c r="I7" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.735E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6.47</v>
       </c>
@@ -706,17 +788,25 @@
       <c r="I8" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8020000000000008E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -744,17 +834,25 @@
       <c r="I9" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.4110000000000001E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -782,17 +880,25 @@
       <c r="I10" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2533000000000001E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -820,17 +926,25 @@
       <c r="I11" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3790000000000002E-3</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -858,17 +972,25 @@
       <c r="I12" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5489999999999993E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -896,17 +1018,25 @@
       <c r="I13" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.9050000000000005E-3</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -934,17 +1064,25 @@
       <c r="I14" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6400000000000009E-4</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -972,17 +1110,25 @@
       <c r="I15" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8592000000000001E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>3</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1010,17 +1156,25 @@
       <c r="I16" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6477000000000001E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1048,17 +1202,25 @@
       <c r="I17" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2991000000000004E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>3</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1086,17 +1248,25 @@
       <c r="I18" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0.01</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8260000000000002E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1124,17 +1294,25 @@
       <c r="I19" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6268000000000001E-2</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1162,17 +1340,25 @@
       <c r="I20" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.494E-2</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>16.184999999999999</v>
       </c>
@@ -1200,17 +1386,25 @@
       <c r="I21" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9256000000000002E-2</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>3</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1238,17 +1432,25 @@
       <c r="I22" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8263000000000005E-2</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>4</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1276,17 +1478,25 @@
       <c r="I23" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1829000000000001E-2</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>4</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1314,17 +1524,25 @@
       <c r="I24" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3986999999999998E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>4</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1352,17 +1570,25 @@
       <c r="I25" s="3">
         <v>0.06</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>2.3E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0378000000000002E-2</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <v>4</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1390,17 +1616,25 @@
       <c r="I26" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>1.9E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4402E-2</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>4</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1428,17 +1662,25 @@
       <c r="I27" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1663000000000002E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>4</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1466,17 +1708,25 @@
       <c r="I28" s="3">
         <v>0.124</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9173000000000003E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>4</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>22.658999999999999</v>
       </c>
@@ -1504,17 +1754,25 @@
       <c r="I29" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7762E-2</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -1542,17 +1800,25 @@
       <c r="I30" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1460000000000004E-3</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7453855480877423E-3</v>
+      </c>
+      <c r="M30" s="3">
         <v>5</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -1580,17 +1846,25 @@
       <c r="I31" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0790000000000001E-2</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4344954505720338E-2</v>
+      </c>
+      <c r="M31" s="3">
         <v>5</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>9.7100000000000009</v>
       </c>
@@ -1618,17 +1892,25 @@
       <c r="I32" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2284E-2</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5161544944617371E-2</v>
+      </c>
+      <c r="M32" s="3">
         <v>5</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>12.95</v>
       </c>
@@ -1656,17 +1938,25 @@
       <c r="I33" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5604000000000002E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9532413675733985E-2</v>
+      </c>
+      <c r="M33" s="3">
         <v>5</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>12.95</v>
       </c>
@@ -1694,17 +1984,25 @@
       <c r="I34" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7679E-2</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2988104728315469E-2</v>
+      </c>
+      <c r="M34" s="3">
         <v>5</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>16.18</v>
       </c>
@@ -1732,17 +2030,25 @@
       <c r="I35" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7110000000000009E-3</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1432256076558116E-2</v>
+      </c>
+      <c r="M35" s="3">
         <v>5</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>16.18</v>
       </c>
@@ -1770,13 +2076,21 @@
       <c r="I36" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0470000000000012E-3</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2571392025429608E-3</v>
+      </c>
+      <c r="M36" s="3">
         <v>5</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>14</v>
       </c>
     </row>
